--- a/biology/Zoologie/Gongylosoma_longicaudum/Gongylosoma_longicaudum.xlsx
+++ b/biology/Zoologie/Gongylosoma_longicaudum/Gongylosoma_longicaudum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gongylosoma longicaudum est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gongylosoma longicaudum est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Java, à Sumatra et au Kalimantan, en Malaisie et en Thaïlande[1],.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Java, à Sumatra et au Kalimantan, en Malaisie et en Thaïlande,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1871 : Über neue Reptilien aus Ostafrika und Sarawak (Borneo), vorzüglich aus der Sammlung des Hrn. Marquis J. Doria zu Genua. Monatsberichte der Königlichen Akademie der Wissenschaften zu Berlin, vol. 1871, p. 566-581 (texte intégral).</t>
         </is>
